--- a/cronograma/Cronograma_SD_2019_1.xlsx
+++ b/cronograma/Cronograma_SD_2019_1.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maquison\sd\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE7B36-93D2-435C-9174-66A116324B5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$1:$E$21</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,10 +58,6 @@
     <t>Carnaval</t>
   </si>
   <si>
-    <t>Continuação Fundamentos de SD. (Conceito, Características, Vantagens, Desvantagens).
-Revisão de Redes - Wireshark</t>
-  </si>
-  <si>
     <t>Modelos de Comunicação e Arquitetura</t>
   </si>
   <si>
@@ -76,18 +76,6 @@
   </si>
   <si>
     <t>Relógios Lógicos e Exclusão Mútua</t>
-  </si>
-  <si>
-    <t>Prova 1
-Revisão Sockets e MQTT</t>
-  </si>
-  <si>
-    <t>Algoritmos Distribuídos - (Eleição, Consenso) 
-RPC, XMLRPC e GRPC - Google RPC</t>
-  </si>
-  <si>
-    <t>Modelo de Representação de Dados (Aula Invertida)
-SOA</t>
   </si>
   <si>
     <t>RMI
@@ -104,10 +92,6 @@
 RESTFULL/Microsserviços</t>
   </si>
   <si>
-    <t>IoT
-Descoberta de Serviços</t>
-  </si>
-  <si>
     <t>Blockchain - Aula Invertida</t>
   </si>
   <si>
@@ -115,13 +99,33 @@
   </si>
   <si>
     <t>Prova Final</t>
+  </si>
+  <si>
+    <t>P2P, Bit Torrent e DHT</t>
+  </si>
+  <si>
+    <t>Revisão Sockets e MQTT
+Dúvidas do Estudo Dirigido</t>
+  </si>
+  <si>
+    <t>Prova 1
+Algoritmos Distribuídos - (Eleição, Consenso)</t>
+  </si>
+  <si>
+    <t>RPC, XMLRPC e GRPC - Google RPC
+Modelo de Representação de Dados (Aula Invertida)
+SOA</t>
+  </si>
+  <si>
+    <t>Continuação Fundamentos de SD.
+Revisão de Redes - Wireshark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +146,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -165,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,47 +189,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -311,6 +288,42 @@
       </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -325,14 +338,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Aula #" dataDxfId="6"/>
-    <tableColumn id="2" name="Feriado" dataDxfId="5"/>
-    <tableColumn id="3" name="Data" dataDxfId="4"/>
-    <tableColumn id="4" name="# aulas" dataDxfId="3"/>
-    <tableColumn id="5" name="Conteúdo Programado" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aula #" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feriado" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="# aulas" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Conteúdo Programado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -600,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,8 +625,8 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -695,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -711,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -729,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
@@ -745,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
@@ -757,11 +770,11 @@
         <v>43563</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D20" si="1">IF(B9&lt;&gt;"*",D8+4,D8)</f>
+        <f t="shared" ref="D9:D19" si="1">IF(B9&lt;&gt;"*",D8+4,D8)</f>
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -777,7 +790,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -793,10 +806,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -809,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
@@ -825,7 +838,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
@@ -841,27 +854,27 @@
         <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="3">
         <v>43605</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
+      <c r="D15" s="5">
+        <f>IF(B16&lt;&gt;"*",D14+4,D14)</f>
         <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
@@ -869,15 +882,15 @@
         <v>43612</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(B17&lt;&gt;"*",D15+4,D15)</f>
         <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
@@ -885,15 +898,15 @@
         <v>43619</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(B17&lt;&gt;"*",D16+4,D16)</f>
         <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
@@ -905,11 +918,11 @@
         <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
@@ -921,11 +934,11 @@
         <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
@@ -933,26 +946,29 @@
         <v>43640</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(B20&lt;&gt;"*",D19+4,D19)</f>
         <v>64</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
+      <c r="E20" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
         <v>43647</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
+      <c r="D21" s="2">
+        <f>IF(B21&lt;&gt;"*",D20+4,D20)</f>
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
